--- a/Pedidos/DataExcel/ProductoAlmacen.xlsx
+++ b/Pedidos/DataExcel/ProductoAlmacen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Idioma</t>
   </si>
@@ -64,73 +64,76 @@
     <t>PV-002</t>
   </si>
   <si>
+    <t>2663-101-455</t>
+  </si>
+  <si>
     <t>1500-440-055</t>
   </si>
   <si>
+    <t>2590-114-102</t>
+  </si>
+  <si>
+    <t>9440-303-304</t>
+  </si>
+  <si>
+    <t>9440-404-384</t>
+  </si>
+  <si>
+    <t>2663-909-114</t>
+  </si>
+  <si>
+    <t>9511-101-140</t>
+  </si>
+  <si>
+    <t>1200-660-055</t>
+  </si>
+  <si>
     <t>9511-202-111</t>
   </si>
   <si>
-    <t>2590-114-102</t>
-  </si>
-  <si>
-    <t>2663-101-455</t>
-  </si>
-  <si>
-    <t>9440-404-384</t>
-  </si>
-  <si>
-    <t>9511-101-140</t>
-  </si>
-  <si>
-    <t>9440-303-304</t>
-  </si>
-  <si>
-    <t>9440-404-385</t>
-  </si>
-  <si>
-    <t>1200-660-055</t>
-  </si>
-  <si>
-    <t>7781-202-001</t>
+    <t>9440-404-382</t>
   </si>
   <si>
     <t>Paleta 4 tambores 55 gal trenton</t>
   </si>
   <si>
+    <t>Paleta TRENTON 5 TRENTONITE PROFESSIONAL 30</t>
+  </si>
+  <si>
     <t>TRENTON5 SPINDLE/NEEDLE BEARING LUBRICANT 32</t>
   </si>
   <si>
+    <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
+  </si>
+  <si>
+    <t>Cap Seal 3/4' TRENTON5</t>
+  </si>
+  <si>
+    <t>Tapa con Foil 38x400 Plateado</t>
+  </si>
+  <si>
+    <t>ENGINE OIL MINERAL SAE 20W-50 API SN PLUS TRENTONITE PROFESSIONAL 20W-50 API SN PLU</t>
+  </si>
+  <si>
+    <t>Envase 1/4 Gal - TRENTON5</t>
+  </si>
+  <si>
+    <t>TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 100</t>
+  </si>
+  <si>
     <t>Envase 1 Galon - TRENTON5</t>
   </si>
   <si>
-    <t>CAJA CARTON TRENTONITE SYN BLEND - 12x1/4</t>
-  </si>
-  <si>
-    <t>Paleta TRENTON 5 TRENTONITE PROFESSIONAL 30</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Plateado</t>
-  </si>
-  <si>
-    <t>Envase 1/4 Gal - TRENTON5</t>
-  </si>
-  <si>
-    <t>Cap Seal 3/4' TRENTON5</t>
-  </si>
-  <si>
-    <t>Tapa con Foil 38x400 Rojo</t>
-  </si>
-  <si>
-    <t>TRENTON5 PREMIUM MULTI-VIS HYDRAULIC OIL 100</t>
-  </si>
-  <si>
-    <t>TRENTON 5 LUBERMAX SYNTHETIC BLEND TOP HD FORTIFIED WITH MOLY 10W-40</t>
+    <t>Tapa con Foil 38x400 Negro</t>
   </si>
   <si>
     <t>Producto Terminado</t>
   </si>
   <si>
     <t>Materia Prima</t>
+  </si>
+  <si>
+    <t>MP: Liquidos</t>
   </si>
 </sst>
 </file>
@@ -564,21 +567,21 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
         <v>2</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -587,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -596,19 +599,19 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>691</v>
       </c>
       <c r="H3" t="s">
         <v>37</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="L3">
         <v>7</v>
@@ -628,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>563</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -637,30 +640,30 @@
         <v>28</v>
       </c>
       <c r="G4">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>15589</v>
+        <v>126</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -678,7 +681,7 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>60000</v>
+        <v>59999</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
@@ -687,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>3003</v>
+        <v>2759</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -710,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>582</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -719,30 +722,30 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <v>692</v>
+        <v>823303</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>224</v>
+        <v>32751</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -760,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="G7">
-        <v>55000</v>
+        <v>43326</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
@@ -769,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>19538</v>
+        <v>37020</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>6</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -792,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -801,19 +804,19 @@
         <v>32</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>5433581</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>77</v>
+        <v>2168</v>
       </c>
       <c r="K8">
-        <v>79743</v>
+        <v>17847</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -824,43 +827,43 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>774</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>572</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J9">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>94</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>201</v>
+        <v>2611</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -874,39 +877,39 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>542</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>199800</v>
+        <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>11663</v>
+        <v>227</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -915,16 +918,16 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>55000</v>
+        <v>50005</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
@@ -933,16 +936,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>46531</v>
+        <v>40413</v>
       </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>6</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -956,39 +959,39 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>542</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>200</v>
+        <v>38043</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>125</v>
+        <v>55228</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -997,34 +1000,34 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>98</v>
+        <v>572</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K13">
-        <v>54150</v>
+        <v>207</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
